--- a/data/BPS_FH_Dataset/05/chords.xlsx
+++ b/data/BPS_FH_Dataset/05/chords.xlsx
@@ -294,7 +294,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -305,10 +305,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -406,8 +402,8 @@
   </sheetPr>
   <dimension ref="A1:K309"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A299" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B309" activeCellId="0" sqref="B309"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A158" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A173" activeCellId="0" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1025,7 +1021,7 @@
       <c r="C27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1071,7 +1067,7 @@
       <c r="C29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="1" t="n">
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -1301,7 +1297,7 @@
       <c r="C39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -1347,7 +1343,7 @@
       <c r="C41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -1761,7 +1757,7 @@
       <c r="C59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -1899,7 +1895,7 @@
       <c r="C65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -1945,7 +1941,7 @@
       <c r="C67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -1991,7 +1987,7 @@
       <c r="C69" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -2037,7 +2033,7 @@
       <c r="C71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -2083,7 +2079,7 @@
       <c r="C73" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -2373,25 +2369,25 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="n">
+      <c r="A86" s="4" t="n">
         <v>309</v>
       </c>
-      <c r="B86" s="5" t="n">
+      <c r="B86" s="4" t="n">
         <v>315</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D86" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" s="5" t="s">
+      <c r="C86" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3003,7 +2999,7 @@
       <c r="C113" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D113" s="3" t="n">
+      <c r="D113" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -3049,7 +3045,7 @@
       <c r="C115" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D115" s="3" t="n">
+      <c r="D115" s="1" t="n">
         <v>7</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -3279,7 +3275,7 @@
       <c r="C125" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -3325,7 +3321,7 @@
       <c r="C127" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="D127" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -3739,7 +3735,7 @@
       <c r="C145" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D145" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E145" s="1" t="s">
@@ -3877,7 +3873,7 @@
       <c r="C151" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D151" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E151" s="1" t="s">
@@ -3923,7 +3919,7 @@
       <c r="C153" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D153" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -3969,7 +3965,7 @@
       <c r="C155" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="D155" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E155" s="1" t="s">
@@ -4015,7 +4011,7 @@
       <c r="C157" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="D157" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E157" s="1" t="s">
@@ -4061,7 +4057,7 @@
       <c r="C159" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D159" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E159" s="1" t="s">
@@ -4351,31 +4347,31 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="6" t="n">
+      <c r="A172" s="5" t="n">
         <v>624</v>
       </c>
-      <c r="B172" s="6" t="n">
+      <c r="B172" s="5" t="n">
         <v>630</v>
       </c>
-      <c r="C172" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D172" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F172" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G172" s="6" t="s">
+      <c r="C172" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D172" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
-        <v>360</v>
+        <v>630</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>639</v>
@@ -4383,7 +4379,7 @@
       <c r="C173" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D173" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E173" s="1" t="s">
@@ -4406,7 +4402,7 @@
       <c r="C174" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D174" s="4" t="s">
+      <c r="D174" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E174" s="1" t="s">
@@ -4958,7 +4954,7 @@
       <c r="C198" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D198" s="4" t="s">
+      <c r="D198" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E198" s="1" t="s">
@@ -4981,7 +4977,7 @@
       <c r="C199" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D199" s="3" t="n">
+      <c r="D199" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E199" s="1" t="s">
@@ -5349,7 +5345,7 @@
       <c r="C215" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D215" s="4" t="s">
+      <c r="D215" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E215" s="1" t="s">
@@ -5386,25 +5382,25 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="7" t="n">
+      <c r="A217" s="6" t="n">
         <v>789</v>
       </c>
-      <c r="B217" s="7" t="n">
+      <c r="B217" s="6" t="n">
         <v>816</v>
       </c>
-      <c r="C217" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D217" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E217" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F217" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G217" s="7" t="s">
+      <c r="C217" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D217" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F217" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6154,7 +6150,7 @@
       <c r="C250" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D250" s="4" t="s">
+      <c r="D250" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E250" s="1" t="s">
@@ -6200,7 +6196,7 @@
       <c r="C252" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D252" s="4" t="s">
+      <c r="D252" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E252" s="1" t="s">
@@ -6775,7 +6771,7 @@
       <c r="C277" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D277" s="4" t="s">
+      <c r="D277" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E277" s="1" t="s">
@@ -6821,7 +6817,7 @@
       <c r="C279" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D279" s="4" t="s">
+      <c r="D279" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E279" s="1" t="s">
@@ -6936,7 +6932,7 @@
       <c r="C284" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D284" s="4" t="s">
+      <c r="D284" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E284" s="1" t="s">
@@ -6982,7 +6978,7 @@
       <c r="C286" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D286" s="4" t="s">
+      <c r="D286" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E286" s="1" t="s">
@@ -7120,7 +7116,7 @@
       <c r="C292" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D292" s="4" t="s">
+      <c r="D292" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E292" s="1" t="s">
@@ -7166,7 +7162,7 @@
       <c r="C294" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D294" s="4" t="s">
+      <c r="D294" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E294" s="1" t="s">
